--- a/Code/Results/Cases/Case_0_179/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_179/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2805811391366149</v>
+        <v>0.3855093834616241</v>
       </c>
       <c r="D2">
-        <v>0.05433178957982676</v>
+        <v>0.03155125738216213</v>
       </c>
       <c r="E2">
-        <v>0.0886143988146415</v>
+        <v>0.1560557415323451</v>
       </c>
       <c r="F2">
-        <v>0.493990909685003</v>
+        <v>0.7615696867772286</v>
       </c>
       <c r="G2">
-        <v>0.3886883389623392</v>
+        <v>0.6035068769296572</v>
       </c>
       <c r="H2">
-        <v>0.3024228435363199</v>
+        <v>0.7233494293072766</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.518364012047044</v>
+        <v>0.8740202254555527</v>
       </c>
       <c r="L2">
-        <v>0.05890095596005196</v>
+        <v>0.1325445369079681</v>
       </c>
       <c r="M2">
-        <v>0.6329703561993725</v>
+        <v>0.3354086091208472</v>
       </c>
       <c r="N2">
-        <v>0.8413584895994646</v>
+        <v>1.250876771111045</v>
       </c>
       <c r="O2">
-        <v>1.406556351181962</v>
+        <v>2.636022623698494</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2565409854867511</v>
+        <v>0.3817261230624354</v>
       </c>
       <c r="D3">
-        <v>0.04889749430958545</v>
+        <v>0.02968324785815213</v>
       </c>
       <c r="E3">
-        <v>0.08315117966552421</v>
+        <v>0.1557607432474981</v>
       </c>
       <c r="F3">
-        <v>0.4606885677775807</v>
+        <v>0.7598176843891054</v>
       </c>
       <c r="G3">
-        <v>0.364314178517759</v>
+        <v>0.603374004366259</v>
       </c>
       <c r="H3">
-        <v>0.2970699739124711</v>
+        <v>0.727418335594308</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.192857093436714</v>
+        <v>0.7736316464490756</v>
       </c>
       <c r="L3">
-        <v>0.05725147941561204</v>
+        <v>0.1331122084374812</v>
       </c>
       <c r="M3">
-        <v>0.5516209863197901</v>
+        <v>0.3123560803247543</v>
       </c>
       <c r="N3">
-        <v>0.8463366360983287</v>
+        <v>1.255573589930258</v>
       </c>
       <c r="O3">
-        <v>1.343288715560476</v>
+        <v>2.643965141868335</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.242132497844878</v>
+        <v>0.3796017345380278</v>
       </c>
       <c r="D4">
-        <v>0.04554837305101955</v>
+        <v>0.0285260372124867</v>
       </c>
       <c r="E4">
-        <v>0.07993240864715645</v>
+        <v>0.1556581496702556</v>
       </c>
       <c r="F4">
-        <v>0.4412321501004968</v>
+        <v>0.7592364818098574</v>
       </c>
       <c r="G4">
-        <v>0.3502842377248427</v>
+        <v>0.6037283256203096</v>
       </c>
       <c r="H4">
-        <v>0.294363728793229</v>
+        <v>0.7302613886692981</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.992980490705122</v>
+        <v>0.7119033611720909</v>
       </c>
       <c r="L4">
-        <v>0.05634470016196858</v>
+        <v>0.1335237874883788</v>
       </c>
       <c r="M4">
-        <v>0.5018458680389202</v>
+        <v>0.2982819831866692</v>
       </c>
       <c r="N4">
-        <v>0.8502995917709342</v>
+        <v>1.258903858805105</v>
       </c>
       <c r="O4">
-        <v>1.307630819280178</v>
+        <v>2.650477180708663</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2363441432059261</v>
+        <v>0.3787860361547217</v>
       </c>
       <c r="D5">
-        <v>0.04418025829517092</v>
+        <v>0.02805191463344414</v>
       </c>
       <c r="E5">
-        <v>0.07865305992478611</v>
+        <v>0.1556361074358321</v>
       </c>
       <c r="F5">
-        <v>0.4335384071620965</v>
+        <v>0.7591239547833126</v>
       </c>
       <c r="G5">
-        <v>0.3447883018279683</v>
+        <v>0.6039821997501775</v>
       </c>
       <c r="H5">
-        <v>0.2934005924754928</v>
+        <v>0.7315066722708465</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.911505576318206</v>
+        <v>0.6867278417643661</v>
       </c>
       <c r="L5">
-        <v>0.05600064216679002</v>
+        <v>0.133707362595441</v>
       </c>
       <c r="M5">
-        <v>0.4815985130223197</v>
+        <v>0.2925672304775162</v>
       </c>
       <c r="N5">
-        <v>0.8521355441780827</v>
+        <v>1.260373448325069</v>
       </c>
       <c r="O5">
-        <v>1.293859012288266</v>
+        <v>2.653541889706034</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2353878658508819</v>
+        <v>0.3786536127415303</v>
       </c>
       <c r="D6">
-        <v>0.04395287795682634</v>
+        <v>0.02797303371335147</v>
       </c>
       <c r="E6">
-        <v>0.07844252680593655</v>
+        <v>0.1556336416228596</v>
       </c>
       <c r="F6">
-        <v>0.4322746469029894</v>
+        <v>0.7591127771691006</v>
       </c>
       <c r="G6">
-        <v>0.343888680802273</v>
+        <v>0.6040309642914963</v>
       </c>
       <c r="H6">
-        <v>0.2932489228972415</v>
+        <v>0.7317186890605711</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.897974743701639</v>
+        <v>0.6825462636118118</v>
       </c>
       <c r="L6">
-        <v>0.05594501557881415</v>
+        <v>0.1337388027454907</v>
       </c>
       <c r="M6">
-        <v>0.4782384494934249</v>
+        <v>0.291619552791893</v>
       </c>
       <c r="N6">
-        <v>0.8524535569811249</v>
+        <v>1.260624272679877</v>
       </c>
       <c r="O6">
-        <v>1.291616848553758</v>
+        <v>2.654075599598599</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.242054104007579</v>
+        <v>0.3795905311601615</v>
       </c>
       <c r="D7">
-        <v>0.04552993586691656</v>
+        <v>0.02851965331884543</v>
       </c>
       <c r="E7">
-        <v>0.0799150263155326</v>
+        <v>0.1556577723487003</v>
       </c>
       <c r="F7">
-        <v>0.441127456988653</v>
+        <v>0.7592344609228263</v>
       </c>
       <c r="G7">
-        <v>0.3502092392301464</v>
+        <v>0.603731306322544</v>
       </c>
       <c r="H7">
-        <v>0.2943501821155934</v>
+        <v>0.7302778318470899</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.99188181254334</v>
+        <v>0.7115639170268082</v>
       </c>
       <c r="L7">
-        <v>0.05633995851848894</v>
+        <v>0.1335261990504257</v>
       </c>
       <c r="M7">
-        <v>0.501572667021172</v>
+        <v>0.2982048283019978</v>
       </c>
       <c r="N7">
-        <v>0.8503234660185583</v>
+        <v>1.258923222481734</v>
       </c>
       <c r="O7">
-        <v>1.307442069441322</v>
+        <v>2.650516848602322</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2722156698581131</v>
+        <v>0.3841637526615358</v>
       </c>
       <c r="D8">
-        <v>0.05246050588856832</v>
+        <v>0.03090930941672809</v>
       </c>
       <c r="E8">
-        <v>0.08670141883841964</v>
+        <v>0.1559377354577336</v>
       </c>
       <c r="F8">
-        <v>0.4822936342131001</v>
+        <v>0.7608629308695924</v>
       </c>
       <c r="G8">
-        <v>0.3800812716483222</v>
+        <v>0.6033705122230941</v>
       </c>
       <c r="H8">
-        <v>0.3004528322264832</v>
+        <v>0.7246808582255682</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.406119579821024</v>
+        <v>0.8394257710011743</v>
       </c>
       <c r="L8">
-        <v>0.05830947808323472</v>
+        <v>0.132727191620706</v>
       </c>
       <c r="M8">
-        <v>0.6048805058218463</v>
+        <v>0.3274436600689015</v>
       </c>
       <c r="N8">
-        <v>0.8428825748106519</v>
+        <v>1.252403716365521</v>
       </c>
       <c r="O8">
-        <v>1.384053484600713</v>
+        <v>2.638421665980303</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3344149496143416</v>
+        <v>0.3947046125827853</v>
       </c>
       <c r="D9">
-        <v>0.06596253650523209</v>
+        <v>0.03551316717611286</v>
       </c>
       <c r="E9">
-        <v>0.1011715719222437</v>
+        <v>0.1571093801265739</v>
       </c>
       <c r="F9">
-        <v>0.5715725079470317</v>
+        <v>0.7679832912009559</v>
       </c>
       <c r="G9">
-        <v>0.4467515566460207</v>
+        <v>0.6061283737536343</v>
       </c>
       <c r="H9">
-        <v>0.3173246460803369</v>
+        <v>0.7164394275837367</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.219335796830649</v>
+        <v>1.089390817023116</v>
       </c>
       <c r="L9">
-        <v>0.06306975182239327</v>
+        <v>0.1316603016320066</v>
       </c>
       <c r="M9">
-        <v>0.8092041700051169</v>
+        <v>0.385404087414166</v>
       </c>
       <c r="N9">
-        <v>0.835812587260321</v>
+        <v>1.243151785198748</v>
       </c>
       <c r="O9">
-        <v>1.561626512498265</v>
+        <v>2.627690687539797</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3823559922116715</v>
+        <v>0.4034056633279306</v>
       </c>
       <c r="D10">
-        <v>0.07584401433261689</v>
+        <v>0.03884448602978097</v>
       </c>
       <c r="E10">
-        <v>0.1126378841061815</v>
+        <v>0.1583494051922507</v>
       </c>
       <c r="F10">
-        <v>0.6433918731669195</v>
+        <v>0.775614754101781</v>
       </c>
       <c r="G10">
-        <v>0.5016481511130166</v>
+        <v>0.6102777521807212</v>
       </c>
       <c r="H10">
-        <v>0.333151084873947</v>
+        <v>0.7120504102424832</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.818913468873291</v>
+        <v>1.272502499857865</v>
       </c>
       <c r="L10">
-        <v>0.06719858036049686</v>
+        <v>0.1311812054218358</v>
       </c>
       <c r="M10">
-        <v>0.9609258408440908</v>
+        <v>0.4283536816434008</v>
       </c>
       <c r="N10">
-        <v>0.8356914336283836</v>
+        <v>1.238496773144504</v>
       </c>
       <c r="O10">
-        <v>1.711759694509368</v>
+        <v>2.627745291083841</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4047434044604472</v>
+        <v>0.4075713644202779</v>
       </c>
       <c r="D11">
-        <v>0.08033479140672029</v>
+        <v>0.04034869223201554</v>
       </c>
       <c r="E11">
-        <v>0.1180655695834432</v>
+        <v>0.1589958144236512</v>
       </c>
       <c r="F11">
-        <v>0.677656171797679</v>
+        <v>0.7796091121535653</v>
       </c>
       <c r="G11">
-        <v>0.5281388484263658</v>
+        <v>0.6126287933946628</v>
       </c>
       <c r="H11">
-        <v>0.3412004804377204</v>
+        <v>0.7104153386608658</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>4.092513345750433</v>
+        <v>1.355674848002877</v>
       </c>
       <c r="L11">
-        <v>0.06923391578266092</v>
+        <v>0.1310294268965322</v>
       </c>
       <c r="M11">
-        <v>1.030427822033161</v>
+        <v>0.447969389746973</v>
       </c>
       <c r="N11">
-        <v>0.8368539514377034</v>
+        <v>1.236842052132801</v>
       </c>
       <c r="O11">
-        <v>1.785042835258906</v>
+        <v>2.629498724294223</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4133121765221972</v>
+        <v>0.409178592284178</v>
       </c>
       <c r="D12">
-        <v>0.08203502362798787</v>
+        <v>0.04091665824281421</v>
       </c>
       <c r="E12">
-        <v>0.1201539844544115</v>
+        <v>0.1592524186297624</v>
       </c>
       <c r="F12">
-        <v>0.6908816095194936</v>
+        <v>0.7811969214620262</v>
       </c>
       <c r="G12">
-        <v>0.5384092126471671</v>
+        <v>0.6135858803917102</v>
       </c>
       <c r="H12">
-        <v>0.3443801337116525</v>
+        <v>0.7098481478168139</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>4.196273574773727</v>
+        <v>1.387150419774628</v>
       </c>
       <c r="L12">
-        <v>0.07002901149941465</v>
+        <v>0.1309814651000565</v>
       </c>
       <c r="M12">
-        <v>1.056827386348431</v>
+        <v>0.4554082013507212</v>
       </c>
       <c r="N12">
-        <v>0.8374796540594502</v>
+        <v>1.236281825636013</v>
       </c>
       <c r="O12">
-        <v>1.813573918505284</v>
+        <v>2.630411589929736</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4114625525942301</v>
+        <v>0.4088311243462215</v>
       </c>
       <c r="D13">
-        <v>0.08166885776502397</v>
+        <v>0.0407944102014639</v>
       </c>
       <c r="E13">
-        <v>0.1197026922549895</v>
+        <v>0.1591966287099567</v>
       </c>
       <c r="F13">
-        <v>0.6880217904007964</v>
+        <v>0.7808516113970825</v>
       </c>
       <c r="G13">
-        <v>0.5361863364660593</v>
+        <v>0.6133767812751643</v>
       </c>
       <c r="H13">
-        <v>0.3436893338074185</v>
+        <v>0.7099679910580221</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>4.173919574376669</v>
+        <v>1.380372510949144</v>
       </c>
       <c r="L13">
-        <v>0.06985666064349516</v>
+        <v>0.1309913714338222</v>
       </c>
       <c r="M13">
-        <v>1.05113799217991</v>
+        <v>0.4538056477222412</v>
       </c>
       <c r="N13">
-        <v>0.837336475546266</v>
+        <v>1.236399530946755</v>
       </c>
       <c r="O13">
-        <v>1.807393478908324</v>
+        <v>2.630203914148723</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4054464885428217</v>
+        <v>0.4077029958917535</v>
       </c>
       <c r="D14">
-        <v>0.08047467530710151</v>
+        <v>0.04039545226090979</v>
       </c>
       <c r="E14">
-        <v>0.1182367062305758</v>
+        <v>0.1590166885338924</v>
       </c>
       <c r="F14">
-        <v>0.6787390938576721</v>
+        <v>0.7797382340725392</v>
       </c>
       <c r="G14">
-        <v>0.5289788860612106</v>
+        <v>0.6127061939026532</v>
       </c>
       <c r="H14">
-        <v>0.3414593808888782</v>
+        <v>0.7103676339239087</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>4.101046486608311</v>
+        <v>1.358264773544306</v>
       </c>
       <c r="L14">
-        <v>0.06929883005949478</v>
+        <v>0.1310252903926852</v>
       </c>
       <c r="M14">
-        <v>1.032598046007564</v>
+        <v>0.4485811717683603</v>
       </c>
       <c r="N14">
-        <v>0.8369016490381966</v>
+        <v>1.236794632607285</v>
       </c>
       <c r="O14">
-        <v>1.787374087394625</v>
+        <v>2.629568836642363</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4017735895111514</v>
+        <v>0.4070158588929758</v>
       </c>
       <c r="D15">
-        <v>0.07974317066605607</v>
+        <v>0.04015086399342493</v>
       </c>
       <c r="E15">
-        <v>0.1173431353408567</v>
+        <v>0.1589080092802249</v>
       </c>
       <c r="F15">
-        <v>0.6730864226168052</v>
+        <v>0.7790660575567188</v>
       </c>
       <c r="G15">
-        <v>0.5245958645662654</v>
+        <v>0.6123041434457406</v>
       </c>
       <c r="H15">
-        <v>0.3401108857458297</v>
+        <v>0.7106191951377525</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>4.056430645542775</v>
+        <v>1.344720487374332</v>
       </c>
       <c r="L15">
-        <v>0.068960369377848</v>
+        <v>0.1310473056362937</v>
       </c>
       <c r="M15">
-        <v>1.021252646918576</v>
+        <v>0.4453824196978289</v>
       </c>
       <c r="N15">
-        <v>0.8366597807217175</v>
+        <v>1.237045283243518</v>
       </c>
       <c r="O15">
-        <v>1.77521520822549</v>
+        <v>2.629212253789717</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3809052334006253</v>
+        <v>0.4031375947214997</v>
       </c>
       <c r="D16">
-        <v>0.0755504688600368</v>
+        <v>0.0387459541498032</v>
       </c>
       <c r="E16">
-        <v>0.1122876517022107</v>
+        <v>0.1583088160487982</v>
       </c>
       <c r="F16">
-        <v>0.6411864598481287</v>
+        <v>0.7753642379224743</v>
       </c>
       <c r="G16">
-        <v>0.4999491986459077</v>
+        <v>0.6101334453408072</v>
       </c>
       <c r="H16">
-        <v>0.3326429209759567</v>
+        <v>0.7121645397469933</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.801052818732614</v>
+        <v>1.267064295092325</v>
       </c>
       <c r="L16">
-        <v>0.06706887611779422</v>
+        <v>0.1311924558254702</v>
       </c>
       <c r="M16">
-        <v>0.9563943820954321</v>
+        <v>0.4270732780954845</v>
       </c>
       <c r="N16">
-        <v>0.8356408345721889</v>
+        <v>1.238614211677827</v>
       </c>
       <c r="O16">
-        <v>1.707076124974037</v>
+        <v>2.627665510280849</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3682568802341279</v>
+        <v>0.4008115081994674</v>
       </c>
       <c r="D17">
-        <v>0.07297747187435988</v>
+        <v>0.03788119068133966</v>
       </c>
       <c r="E17">
-        <v>0.1092422955343437</v>
+        <v>0.1579623035936102</v>
       </c>
       <c r="F17">
-        <v>0.6220395726368295</v>
+        <v>0.773227227328583</v>
       </c>
       <c r="G17">
-        <v>0.4852322946598235</v>
+        <v>0.6089206066058921</v>
       </c>
       <c r="H17">
-        <v>0.328285664919747</v>
+        <v>0.7132051439333935</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.644626080086994</v>
+        <v>1.219391119470345</v>
       </c>
       <c r="L17">
-        <v>0.06594996531836728</v>
+        <v>0.1312984464469054</v>
       </c>
       <c r="M17">
-        <v>0.9167373684170954</v>
+        <v>0.4158608290595396</v>
       </c>
       <c r="N17">
-        <v>0.8353347847560997</v>
+        <v>1.23969512060161</v>
       </c>
       <c r="O17">
-        <v>1.666595903200971</v>
+        <v>2.627159588072999</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3610358558929647</v>
+        <v>0.3994931449824151</v>
       </c>
       <c r="D18">
-        <v>0.07149712276947895</v>
+        <v>0.03738274660233998</v>
       </c>
       <c r="E18">
-        <v>0.1075104359311077</v>
+        <v>0.1577707475602104</v>
       </c>
       <c r="F18">
-        <v>0.6111754095457016</v>
+        <v>0.7720472772227893</v>
       </c>
       <c r="G18">
-        <v>0.4769090824399456</v>
+        <v>0.608266628613535</v>
       </c>
       <c r="H18">
-        <v>0.3258588860435054</v>
+        <v>0.713837699974917</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3.554731416031188</v>
+        <v>1.191959014038275</v>
       </c>
       <c r="L18">
-        <v>0.06532107279850052</v>
+        <v>0.1313656372452812</v>
       </c>
       <c r="M18">
-        <v>0.8939724481634528</v>
+        <v>0.4094190648625968</v>
       </c>
       <c r="N18">
-        <v>0.8352727001090443</v>
+        <v>1.240360408463374</v>
       </c>
       <c r="O18">
-        <v>1.643778096835462</v>
+        <v>2.627031280098635</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3585999786596687</v>
+        <v>0.3990501282766843</v>
       </c>
       <c r="D19">
-        <v>0.07099581952400769</v>
+        <v>0.03721380171071331</v>
       </c>
       <c r="E19">
-        <v>0.1069273723290038</v>
+        <v>0.1577072212567892</v>
       </c>
       <c r="F19">
-        <v>0.6075218940629483</v>
+        <v>0.7716562150326425</v>
       </c>
       <c r="G19">
-        <v>0.4741146932514795</v>
+        <v>0.608052689114345</v>
       </c>
       <c r="H19">
-        <v>0.3250505839476006</v>
+        <v>0.7140577172405642</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3.524307071536157</v>
+        <v>1.182669012236317</v>
       </c>
       <c r="L19">
-        <v>0.06511060923024559</v>
+        <v>0.1313894565548814</v>
       </c>
       <c r="M19">
-        <v>0.8862719943295474</v>
+        <v>0.4072392672609624</v>
       </c>
       <c r="N19">
-        <v>0.8352709444639004</v>
+        <v>1.24059315355646</v>
       </c>
       <c r="O19">
-        <v>1.636130445872254</v>
+        <v>2.627015769103082</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3695976772952747</v>
+        <v>0.4010571023052591</v>
       </c>
       <c r="D20">
-        <v>0.07325141413227954</v>
+        <v>0.03797335563391613</v>
       </c>
       <c r="E20">
-        <v>0.1095644164231757</v>
+        <v>0.1579983885680143</v>
       </c>
       <c r="F20">
-        <v>0.624062261003715</v>
+        <v>0.7734496231118015</v>
       </c>
       <c r="G20">
-        <v>0.4867841381379492</v>
+        <v>0.6090452002853368</v>
       </c>
       <c r="H20">
-        <v>0.3287412192889576</v>
+        <v>0.713090848139089</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.661269693020074</v>
+        <v>1.224467240573119</v>
       </c>
       <c r="L20">
-        <v>0.06606754402490722</v>
+        <v>0.1312865190179267</v>
       </c>
       <c r="M20">
-        <v>0.9209542157290613</v>
+        <v>0.4170536567002117</v>
       </c>
       <c r="N20">
-        <v>0.8353554981284219</v>
+        <v>1.239575547193951</v>
       </c>
       <c r="O20">
-        <v>1.670856485860014</v>
+        <v>2.627196604810422</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4072110129609996</v>
+        <v>0.4080335473138632</v>
       </c>
       <c r="D21">
-        <v>0.08082544203820419</v>
+        <v>0.04051268074005066</v>
       </c>
       <c r="E21">
-        <v>0.1186663824636334</v>
+        <v>0.1590692205614808</v>
       </c>
       <c r="F21">
-        <v>0.6814586780612757</v>
+        <v>0.7800632177239635</v>
       </c>
       <c r="G21">
-        <v>0.5310892334417616</v>
+        <v>0.612901347561646</v>
       </c>
       <c r="H21">
-        <v>0.3421107252240887</v>
+        <v>0.7102488386119887</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>4.122446636026496</v>
+        <v>1.3647589092987</v>
       </c>
       <c r="L21">
-        <v>0.06946200266726521</v>
+        <v>0.1310150693882903</v>
       </c>
       <c r="M21">
-        <v>1.03804139457398</v>
+        <v>0.4501154379878969</v>
       </c>
       <c r="N21">
-        <v>0.8370242479317227</v>
+        <v>1.23667678152907</v>
       </c>
       <c r="O21">
-        <v>1.79323256367428</v>
+        <v>2.629748617358757</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4323288353893417</v>
+        <v>0.4127665273778689</v>
       </c>
       <c r="D22">
-        <v>0.08577375289738143</v>
+        <v>0.04216267884995517</v>
       </c>
       <c r="E22">
-        <v>0.1248091477024396</v>
+        <v>0.1598379785486017</v>
       </c>
       <c r="F22">
-        <v>0.7204403328877333</v>
+        <v>0.7848241239129266</v>
       </c>
       <c r="G22">
-        <v>0.5614483578996072</v>
+        <v>0.6158109866851333</v>
       </c>
       <c r="H22">
-        <v>0.3516198765148175</v>
+        <v>0.7086943682185449</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>4.424766082708913</v>
+        <v>1.456330238472958</v>
       </c>
       <c r="L22">
-        <v>0.07182336540110867</v>
+        <v>0.1308931125105275</v>
       </c>
       <c r="M22">
-        <v>1.115040685217728</v>
+        <v>0.4717858024054351</v>
       </c>
       <c r="N22">
-        <v>0.8392013345927865</v>
+        <v>1.235169107106415</v>
       </c>
       <c r="O22">
-        <v>1.877793439515045</v>
+        <v>2.632867301304998</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.418871238884492</v>
+        <v>0.4102246002117909</v>
       </c>
       <c r="D23">
-        <v>0.08313280202717976</v>
+        <v>0.04128293181349818</v>
       </c>
       <c r="E23">
-        <v>0.1215119576128636</v>
+        <v>0.1594213774968765</v>
       </c>
       <c r="F23">
-        <v>0.6994932255108068</v>
+        <v>0.7822429930006365</v>
       </c>
       <c r="G23">
-        <v>0.5451095358150866</v>
+        <v>0.6142223751144797</v>
       </c>
       <c r="H23">
-        <v>0.3464708316564327</v>
+        <v>0.7094963019312672</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>4.263317713969172</v>
+        <v>1.407468251733405</v>
       </c>
       <c r="L23">
-        <v>0.07054937176378928</v>
+        <v>0.1309531297254551</v>
       </c>
       <c r="M23">
-        <v>1.073897224831107</v>
+        <v>0.4602143296824011</v>
       </c>
       <c r="N23">
-        <v>0.8379363547761614</v>
+        <v>1.235938443635177</v>
       </c>
       <c r="O23">
-        <v>1.832220484232067</v>
+        <v>2.631069951603706</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3689913456713327</v>
+        <v>0.4009460102242315</v>
       </c>
       <c r="D24">
-        <v>0.07312756828243039</v>
+        <v>0.0379316918432977</v>
       </c>
       <c r="E24">
-        <v>0.1094187267224456</v>
+        <v>0.1579820506946561</v>
       </c>
       <c r="F24">
-        <v>0.6231473577787625</v>
+        <v>0.7733489264543678</v>
       </c>
       <c r="G24">
-        <v>0.4860821222405889</v>
+        <v>0.6089887366199207</v>
       </c>
       <c r="H24">
-        <v>0.3285350200750514</v>
+        <v>0.7131424144263576</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.653745002267044</v>
+        <v>1.222172401342391</v>
       </c>
       <c r="L24">
-        <v>0.0660143420202921</v>
+        <v>0.131291891923361</v>
       </c>
       <c r="M24">
-        <v>0.9190476726700183</v>
+        <v>0.4165143655189212</v>
       </c>
       <c r="N24">
-        <v>0.8353457797186223</v>
+        <v>1.239629469698869</v>
       </c>
       <c r="O24">
-        <v>1.668928864532262</v>
+        <v>2.627179363220449</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3172235416879801</v>
+        <v>0.3916848726225908</v>
       </c>
       <c r="D25">
-        <v>0.06231783200097851</v>
+        <v>0.03427660990651304</v>
       </c>
       <c r="E25">
-        <v>0.09711999666017945</v>
+        <v>0.1567257985250272</v>
       </c>
       <c r="F25">
-        <v>0.5464038313916006</v>
+        <v>0.7656359980737619</v>
       </c>
       <c r="G25">
-        <v>0.4277516029362545</v>
+        <v>0.6050102083228239</v>
       </c>
       <c r="H25">
-        <v>0.3121914640135515</v>
+        <v>0.7183763291084801</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.999088945570946</v>
+        <v>1.021858225171371</v>
       </c>
       <c r="L25">
-        <v>0.06167747199518558</v>
+        <v>0.1318954038123401</v>
       </c>
       <c r="M25">
-        <v>0.753689101544758</v>
+        <v>0.3696589736169642</v>
       </c>
       <c r="N25">
-        <v>0.8368715380772898</v>
+        <v>1.245277657343152</v>
       </c>
       <c r="O25">
-        <v>1.510362646973846</v>
+        <v>2.629201104687411</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_179/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_179/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3855093834616241</v>
+        <v>0.2805811391367428</v>
       </c>
       <c r="D2">
-        <v>0.03155125738216213</v>
+        <v>0.05433178957978413</v>
       </c>
       <c r="E2">
-        <v>0.1560557415323451</v>
+        <v>0.08861439881463085</v>
       </c>
       <c r="F2">
-        <v>0.7615696867772286</v>
+        <v>0.493990909685003</v>
       </c>
       <c r="G2">
-        <v>0.6035068769296572</v>
+        <v>0.3886883389624103</v>
       </c>
       <c r="H2">
-        <v>0.7233494293072766</v>
+        <v>0.3024228435363199</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8740202254555527</v>
+        <v>2.51836401204713</v>
       </c>
       <c r="L2">
-        <v>0.1325445369079681</v>
+        <v>0.0589009559601088</v>
       </c>
       <c r="M2">
-        <v>0.3354086091208472</v>
+        <v>0.6329703561993796</v>
       </c>
       <c r="N2">
-        <v>1.250876771111045</v>
+        <v>0.8413584895994646</v>
       </c>
       <c r="O2">
-        <v>2.636022623698494</v>
+        <v>1.406556351181905</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3817261230624354</v>
+        <v>0.2565409854867653</v>
       </c>
       <c r="D3">
-        <v>0.02968324785815213</v>
+        <v>0.04889749430958545</v>
       </c>
       <c r="E3">
-        <v>0.1557607432474981</v>
+        <v>0.08315117966552421</v>
       </c>
       <c r="F3">
-        <v>0.7598176843891054</v>
+        <v>0.4606885677775807</v>
       </c>
       <c r="G3">
-        <v>0.603374004366259</v>
+        <v>0.3643141785177733</v>
       </c>
       <c r="H3">
-        <v>0.727418335594308</v>
+        <v>0.2970699739125706</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7736316464490756</v>
+        <v>2.192857093436714</v>
       </c>
       <c r="L3">
-        <v>0.1331122084374812</v>
+        <v>0.05725147941554098</v>
       </c>
       <c r="M3">
-        <v>0.3123560803247543</v>
+        <v>0.5516209863197901</v>
       </c>
       <c r="N3">
-        <v>1.255573589930258</v>
+        <v>0.8463366360983215</v>
       </c>
       <c r="O3">
-        <v>2.643965141868335</v>
+        <v>1.343288715560448</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3796017345380278</v>
+        <v>0.2421324978447927</v>
       </c>
       <c r="D4">
-        <v>0.0285260372124867</v>
+        <v>0.04554837305100534</v>
       </c>
       <c r="E4">
-        <v>0.1556581496702556</v>
+        <v>0.07993240864715645</v>
       </c>
       <c r="F4">
-        <v>0.7592364818098574</v>
+        <v>0.4412321501004897</v>
       </c>
       <c r="G4">
-        <v>0.6037283256203096</v>
+        <v>0.3502842377248854</v>
       </c>
       <c r="H4">
-        <v>0.7302613886692981</v>
+        <v>0.294363728793229</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7119033611720909</v>
+        <v>1.992980490705179</v>
       </c>
       <c r="L4">
-        <v>0.1335237874883788</v>
+        <v>0.05634470016202897</v>
       </c>
       <c r="M4">
-        <v>0.2982819831866692</v>
+        <v>0.5018458680389202</v>
       </c>
       <c r="N4">
-        <v>1.258903858805105</v>
+        <v>0.8502995917709271</v>
       </c>
       <c r="O4">
-        <v>2.650477180708663</v>
+        <v>1.30763081928022</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3787860361547217</v>
+        <v>0.2363441432059972</v>
       </c>
       <c r="D5">
-        <v>0.02805191463344414</v>
+        <v>0.04418025829524908</v>
       </c>
       <c r="E5">
-        <v>0.1556361074358321</v>
+        <v>0.07865305992478611</v>
       </c>
       <c r="F5">
-        <v>0.7591239547833126</v>
+        <v>0.4335384071620965</v>
       </c>
       <c r="G5">
-        <v>0.6039821997501775</v>
+        <v>0.3447883018278404</v>
       </c>
       <c r="H5">
-        <v>0.7315066722708465</v>
+        <v>0.2934005924754928</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6867278417643661</v>
+        <v>1.911505576318291</v>
       </c>
       <c r="L5">
-        <v>0.133707362595441</v>
+        <v>0.05600064216688594</v>
       </c>
       <c r="M5">
-        <v>0.2925672304775162</v>
+        <v>0.4815985130223197</v>
       </c>
       <c r="N5">
-        <v>1.260373448325069</v>
+        <v>0.8521355441780329</v>
       </c>
       <c r="O5">
-        <v>2.653541889706034</v>
+        <v>1.293859012288323</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3786536127415303</v>
+        <v>0.2353878658509245</v>
       </c>
       <c r="D6">
-        <v>0.02797303371335147</v>
+        <v>0.04395287795684055</v>
       </c>
       <c r="E6">
-        <v>0.1556336416228596</v>
+        <v>0.0784425268059401</v>
       </c>
       <c r="F6">
-        <v>0.7591127771691006</v>
+        <v>0.4322746469029752</v>
       </c>
       <c r="G6">
-        <v>0.6040309642914963</v>
+        <v>0.3438886808022161</v>
       </c>
       <c r="H6">
-        <v>0.7317186890605711</v>
+        <v>0.2932489228971278</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6825462636118118</v>
+        <v>1.897974743701639</v>
       </c>
       <c r="L6">
-        <v>0.1337388027454907</v>
+        <v>0.05594501557882481</v>
       </c>
       <c r="M6">
-        <v>0.291619552791893</v>
+        <v>0.4782384494934391</v>
       </c>
       <c r="N6">
-        <v>1.260624272679877</v>
+        <v>0.852453556981132</v>
       </c>
       <c r="O6">
-        <v>2.654075599598599</v>
+        <v>1.291616848553744</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3795905311601615</v>
+        <v>0.2420541040075221</v>
       </c>
       <c r="D7">
-        <v>0.02851965331884543</v>
+        <v>0.0455299358668384</v>
       </c>
       <c r="E7">
-        <v>0.1556577723487003</v>
+        <v>0.0799150263155326</v>
       </c>
       <c r="F7">
-        <v>0.7592344609228263</v>
+        <v>0.441127456988653</v>
       </c>
       <c r="G7">
-        <v>0.603731306322544</v>
+        <v>0.3502092392302032</v>
       </c>
       <c r="H7">
-        <v>0.7302778318470899</v>
+        <v>0.2943501821155863</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7115639170268082</v>
+        <v>1.991881812543284</v>
       </c>
       <c r="L7">
-        <v>0.1335261990504257</v>
+        <v>0.05633995851842855</v>
       </c>
       <c r="M7">
-        <v>0.2982048283019978</v>
+        <v>0.5015726670211649</v>
       </c>
       <c r="N7">
-        <v>1.258923222481734</v>
+        <v>0.8503234660184802</v>
       </c>
       <c r="O7">
-        <v>2.650516848602322</v>
+        <v>1.307442069441223</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3841637526615358</v>
+        <v>0.272215669858241</v>
       </c>
       <c r="D8">
-        <v>0.03090930941672809</v>
+        <v>0.0524605058886749</v>
       </c>
       <c r="E8">
-        <v>0.1559377354577336</v>
+        <v>0.08670141883841964</v>
       </c>
       <c r="F8">
-        <v>0.7608629308695924</v>
+        <v>0.4822936342131001</v>
       </c>
       <c r="G8">
-        <v>0.6033705122230941</v>
+        <v>0.3800812716482653</v>
       </c>
       <c r="H8">
-        <v>0.7246808582255682</v>
+        <v>0.3004528322264832</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8394257710011743</v>
+        <v>2.406119579821052</v>
       </c>
       <c r="L8">
-        <v>0.132727191620706</v>
+        <v>0.05830947808329512</v>
       </c>
       <c r="M8">
-        <v>0.3274436600689015</v>
+        <v>0.6048805058218676</v>
       </c>
       <c r="N8">
-        <v>1.252403716365521</v>
+        <v>0.8428825748105879</v>
       </c>
       <c r="O8">
-        <v>2.638421665980303</v>
+        <v>1.384053484600742</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3947046125827853</v>
+        <v>0.3344149496143132</v>
       </c>
       <c r="D9">
-        <v>0.03551316717611286</v>
+        <v>0.0659625365051113</v>
       </c>
       <c r="E9">
-        <v>0.1571093801265739</v>
+        <v>0.1011715719222153</v>
       </c>
       <c r="F9">
-        <v>0.7679832912009559</v>
+        <v>0.5715725079470317</v>
       </c>
       <c r="G9">
-        <v>0.6061283737536343</v>
+        <v>0.4467515566459639</v>
       </c>
       <c r="H9">
-        <v>0.7164394275837367</v>
+        <v>0.3173246460804648</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.089390817023116</v>
+        <v>3.219335796830535</v>
       </c>
       <c r="L9">
-        <v>0.1316603016320066</v>
+        <v>0.06306975182233643</v>
       </c>
       <c r="M9">
-        <v>0.385404087414166</v>
+        <v>0.8092041700051027</v>
       </c>
       <c r="N9">
-        <v>1.243151785198748</v>
+        <v>0.8358125872603068</v>
       </c>
       <c r="O9">
-        <v>2.627690687539797</v>
+        <v>1.561626512498265</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4034056633279306</v>
+        <v>0.3823559922112736</v>
       </c>
       <c r="D10">
-        <v>0.03884448602978097</v>
+        <v>0.07584401433260979</v>
       </c>
       <c r="E10">
-        <v>0.1583494051922507</v>
+        <v>0.1126378841061815</v>
       </c>
       <c r="F10">
-        <v>0.775614754101781</v>
+        <v>0.6433918731669195</v>
       </c>
       <c r="G10">
-        <v>0.6102777521807212</v>
+        <v>0.501648151112974</v>
       </c>
       <c r="H10">
-        <v>0.7120504102424832</v>
+        <v>0.3331510848738333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.272502499857865</v>
+        <v>3.818913468873177</v>
       </c>
       <c r="L10">
-        <v>0.1311812054218358</v>
+        <v>0.06719858036055371</v>
       </c>
       <c r="M10">
-        <v>0.4283536816434008</v>
+        <v>0.9609258408440908</v>
       </c>
       <c r="N10">
-        <v>1.238496773144504</v>
+        <v>0.8356914336284404</v>
       </c>
       <c r="O10">
-        <v>2.627745291083841</v>
+        <v>1.711759694509368</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4075713644202779</v>
+        <v>0.4047434044603051</v>
       </c>
       <c r="D11">
-        <v>0.04034869223201554</v>
+        <v>0.08033479140666344</v>
       </c>
       <c r="E11">
-        <v>0.1589958144236512</v>
+        <v>0.118065569583429</v>
       </c>
       <c r="F11">
-        <v>0.7796091121535653</v>
+        <v>0.677656171797679</v>
       </c>
       <c r="G11">
-        <v>0.6126287933946628</v>
+        <v>0.5281388484263942</v>
       </c>
       <c r="H11">
-        <v>0.7104153386608658</v>
+        <v>0.3412004804377204</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.355674848002877</v>
+        <v>4.092513345750547</v>
       </c>
       <c r="L11">
-        <v>0.1310294268965322</v>
+        <v>0.06923391578263249</v>
       </c>
       <c r="M11">
-        <v>0.447969389746973</v>
+        <v>1.030427822033182</v>
       </c>
       <c r="N11">
-        <v>1.236842052132801</v>
+        <v>0.8368539514377034</v>
       </c>
       <c r="O11">
-        <v>2.629498724294223</v>
+        <v>1.785042835258935</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.409178592284178</v>
+        <v>0.4133121765223393</v>
       </c>
       <c r="D12">
-        <v>0.04091665824281421</v>
+        <v>0.08203502362786708</v>
       </c>
       <c r="E12">
-        <v>0.1592524186297624</v>
+        <v>0.1201539844543866</v>
       </c>
       <c r="F12">
-        <v>0.7811969214620262</v>
+        <v>0.6908816095194936</v>
       </c>
       <c r="G12">
-        <v>0.6135858803917102</v>
+        <v>0.5384092126471387</v>
       </c>
       <c r="H12">
-        <v>0.7098481478168139</v>
+        <v>0.3443801337116241</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.387150419774628</v>
+        <v>4.196273574773784</v>
       </c>
       <c r="L12">
-        <v>0.1309814651000565</v>
+        <v>0.07002901149945728</v>
       </c>
       <c r="M12">
-        <v>0.4554082013507212</v>
+        <v>1.056827386348445</v>
       </c>
       <c r="N12">
-        <v>1.236281825636013</v>
+        <v>0.8374796540593934</v>
       </c>
       <c r="O12">
-        <v>2.630411589929736</v>
+        <v>1.813573918505341</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4088311243462215</v>
+        <v>0.4114625525943154</v>
       </c>
       <c r="D13">
-        <v>0.0407944102014639</v>
+        <v>0.08166885776484634</v>
       </c>
       <c r="E13">
-        <v>0.1591966287099567</v>
+        <v>0.1197026922550073</v>
       </c>
       <c r="F13">
-        <v>0.7808516113970825</v>
+        <v>0.6880217904007964</v>
       </c>
       <c r="G13">
-        <v>0.6133767812751643</v>
+        <v>0.5361863364660167</v>
       </c>
       <c r="H13">
-        <v>0.7099679910580221</v>
+        <v>0.3436893338074185</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.380372510949144</v>
+        <v>4.173919574376782</v>
       </c>
       <c r="L13">
-        <v>0.1309913714338222</v>
+        <v>0.069856660643552</v>
       </c>
       <c r="M13">
-        <v>0.4538056477222412</v>
+        <v>1.051137992179925</v>
       </c>
       <c r="N13">
-        <v>1.236399530946755</v>
+        <v>0.8373364755463371</v>
       </c>
       <c r="O13">
-        <v>2.630203914148723</v>
+        <v>1.807393478908295</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4077029958917535</v>
+        <v>0.4054464885426796</v>
       </c>
       <c r="D14">
-        <v>0.04039545226090979</v>
+        <v>0.08047467530721519</v>
       </c>
       <c r="E14">
-        <v>0.1590166885338924</v>
+        <v>0.1182367062305936</v>
       </c>
       <c r="F14">
-        <v>0.7797382340725392</v>
+        <v>0.6787390938576721</v>
       </c>
       <c r="G14">
-        <v>0.6127061939026532</v>
+        <v>0.5289788860612106</v>
       </c>
       <c r="H14">
-        <v>0.7103676339239087</v>
+        <v>0.3414593808890061</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.358264773544306</v>
+        <v>4.101046486608311</v>
       </c>
       <c r="L14">
-        <v>0.1310252903926852</v>
+        <v>0.06929883005946635</v>
       </c>
       <c r="M14">
-        <v>0.4485811717683603</v>
+        <v>1.032598046007571</v>
       </c>
       <c r="N14">
-        <v>1.236794632607285</v>
+        <v>0.8369016490382108</v>
       </c>
       <c r="O14">
-        <v>2.629568836642363</v>
+        <v>1.787374087394596</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4070158588929758</v>
+        <v>0.4017735895115209</v>
       </c>
       <c r="D15">
-        <v>0.04015086399342493</v>
+        <v>0.07974317066600634</v>
       </c>
       <c r="E15">
-        <v>0.1589080092802249</v>
+        <v>0.1173431353408496</v>
       </c>
       <c r="F15">
-        <v>0.7790660575567188</v>
+        <v>0.6730864226168052</v>
       </c>
       <c r="G15">
-        <v>0.6123041434457406</v>
+        <v>0.524595864566308</v>
       </c>
       <c r="H15">
-        <v>0.7106191951377525</v>
+        <v>0.340110885745716</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.344720487374332</v>
+        <v>4.056430645542832</v>
       </c>
       <c r="L15">
-        <v>0.1310473056362937</v>
+        <v>0.06896036937782668</v>
       </c>
       <c r="M15">
-        <v>0.4453824196978289</v>
+        <v>1.021252646918583</v>
       </c>
       <c r="N15">
-        <v>1.237045283243518</v>
+        <v>0.8366597807217175</v>
       </c>
       <c r="O15">
-        <v>2.629212253789717</v>
+        <v>1.77521520822549</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4031375947214997</v>
+        <v>0.3809052334007674</v>
       </c>
       <c r="D16">
-        <v>0.0387459541498032</v>
+        <v>0.07555046885999417</v>
       </c>
       <c r="E16">
-        <v>0.1583088160487982</v>
+        <v>0.1122876517021929</v>
       </c>
       <c r="F16">
-        <v>0.7753642379224743</v>
+        <v>0.6411864598481287</v>
       </c>
       <c r="G16">
-        <v>0.6101334453408072</v>
+        <v>0.4999491986459219</v>
       </c>
       <c r="H16">
-        <v>0.7121645397469933</v>
+        <v>0.3326429209759567</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.267064295092325</v>
+        <v>3.801052818732558</v>
       </c>
       <c r="L16">
-        <v>0.1311924558254702</v>
+        <v>0.06706887611778711</v>
       </c>
       <c r="M16">
-        <v>0.4270732780954845</v>
+        <v>0.9563943820954535</v>
       </c>
       <c r="N16">
-        <v>1.238614211677827</v>
+        <v>0.8356408345721746</v>
       </c>
       <c r="O16">
-        <v>2.627665510280849</v>
+        <v>1.707076124974009</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4008115081994674</v>
+        <v>0.3682568802339858</v>
       </c>
       <c r="D17">
-        <v>0.03788119068133966</v>
+        <v>0.07297747187453751</v>
       </c>
       <c r="E17">
-        <v>0.1579623035936102</v>
+        <v>0.1092422955343757</v>
       </c>
       <c r="F17">
-        <v>0.773227227328583</v>
+        <v>0.6220395726368295</v>
       </c>
       <c r="G17">
-        <v>0.6089206066058921</v>
+        <v>0.4852322946598662</v>
       </c>
       <c r="H17">
-        <v>0.7132051439333935</v>
+        <v>0.3282856649198749</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.219391119470345</v>
+        <v>3.64462608008688</v>
       </c>
       <c r="L17">
-        <v>0.1312984464469054</v>
+        <v>0.06594996531834596</v>
       </c>
       <c r="M17">
-        <v>0.4158608290595396</v>
+        <v>0.9167373684171025</v>
       </c>
       <c r="N17">
-        <v>1.23969512060161</v>
+        <v>0.8353347847560997</v>
       </c>
       <c r="O17">
-        <v>2.627159588072999</v>
+        <v>1.666595903200886</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3994931449824151</v>
+        <v>0.3610358558929079</v>
       </c>
       <c r="D18">
-        <v>0.03738274660233998</v>
+        <v>0.07149712276942211</v>
       </c>
       <c r="E18">
-        <v>0.1577707475602104</v>
+        <v>0.1075104359310828</v>
       </c>
       <c r="F18">
-        <v>0.7720472772227893</v>
+        <v>0.6111754095456874</v>
       </c>
       <c r="G18">
-        <v>0.608266628613535</v>
+        <v>0.4769090824399598</v>
       </c>
       <c r="H18">
-        <v>0.713837699974917</v>
+        <v>0.3258588860436191</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.191959014038275</v>
+        <v>3.554731416031302</v>
       </c>
       <c r="L18">
-        <v>0.1313656372452812</v>
+        <v>0.06532107279844723</v>
       </c>
       <c r="M18">
-        <v>0.4094190648625968</v>
+        <v>0.893972448163467</v>
       </c>
       <c r="N18">
-        <v>1.240360408463374</v>
+        <v>0.8352727001091012</v>
       </c>
       <c r="O18">
-        <v>2.627031280098635</v>
+        <v>1.643778096835433</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3990501282766843</v>
+        <v>0.3585999786594414</v>
       </c>
       <c r="D19">
-        <v>0.03721380171071331</v>
+        <v>0.07099581952395795</v>
       </c>
       <c r="E19">
-        <v>0.1577072212567892</v>
+        <v>0.1069273723290323</v>
       </c>
       <c r="F19">
-        <v>0.7716562150326425</v>
+        <v>0.6075218940629341</v>
       </c>
       <c r="G19">
-        <v>0.608052689114345</v>
+        <v>0.4741146932514937</v>
       </c>
       <c r="H19">
-        <v>0.7140577172405642</v>
+        <v>0.3250505839476006</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.182669012236317</v>
+        <v>3.524307071535986</v>
       </c>
       <c r="L19">
-        <v>0.1313894565548814</v>
+        <v>0.0651106092302598</v>
       </c>
       <c r="M19">
-        <v>0.4072392672609624</v>
+        <v>0.8862719943295332</v>
       </c>
       <c r="N19">
-        <v>1.24059315355646</v>
+        <v>0.8352709444639572</v>
       </c>
       <c r="O19">
-        <v>2.627015769103082</v>
+        <v>1.636130445872169</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4010571023052591</v>
+        <v>0.3695976772950758</v>
       </c>
       <c r="D20">
-        <v>0.03797335563391613</v>
+        <v>0.07325141413240033</v>
       </c>
       <c r="E20">
-        <v>0.1579983885680143</v>
+        <v>0.109564416423197</v>
       </c>
       <c r="F20">
-        <v>0.7734496231118015</v>
+        <v>0.624062261003715</v>
       </c>
       <c r="G20">
-        <v>0.6090452002853368</v>
+        <v>0.4867841381379918</v>
       </c>
       <c r="H20">
-        <v>0.713090848139089</v>
+        <v>0.3287412192890571</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.224467240573119</v>
+        <v>3.661269693020017</v>
       </c>
       <c r="L20">
-        <v>0.1312865190179267</v>
+        <v>0.06606754402497828</v>
       </c>
       <c r="M20">
-        <v>0.4170536567002117</v>
+        <v>0.92095421572904</v>
       </c>
       <c r="N20">
-        <v>1.239575547193951</v>
+        <v>0.8353554981284219</v>
       </c>
       <c r="O20">
-        <v>2.627196604810422</v>
+        <v>1.670856485859957</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4080335473138632</v>
+        <v>0.4072110129609996</v>
       </c>
       <c r="D21">
-        <v>0.04051268074005066</v>
+        <v>0.08082544203803366</v>
       </c>
       <c r="E21">
-        <v>0.1590692205614808</v>
+        <v>0.1186663824636405</v>
       </c>
       <c r="F21">
-        <v>0.7800632177239635</v>
+        <v>0.6814586780612757</v>
       </c>
       <c r="G21">
-        <v>0.612901347561646</v>
+        <v>0.5310892334418185</v>
       </c>
       <c r="H21">
-        <v>0.7102488386119887</v>
+        <v>0.3421107252240887</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.3647589092987</v>
+        <v>4.122446636026496</v>
       </c>
       <c r="L21">
-        <v>0.1310150693882903</v>
+        <v>0.06946200266727942</v>
       </c>
       <c r="M21">
-        <v>0.4501154379878969</v>
+        <v>1.038041394573995</v>
       </c>
       <c r="N21">
-        <v>1.23667678152907</v>
+        <v>0.8370242479317227</v>
       </c>
       <c r="O21">
-        <v>2.629748617358757</v>
+        <v>1.793232563674337</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4127665273778689</v>
+        <v>0.4323288353890007</v>
       </c>
       <c r="D22">
-        <v>0.04216267884995517</v>
+        <v>0.08577375289709721</v>
       </c>
       <c r="E22">
-        <v>0.1598379785486017</v>
+        <v>0.124809147702436</v>
       </c>
       <c r="F22">
-        <v>0.7848241239129266</v>
+        <v>0.7204403328877333</v>
       </c>
       <c r="G22">
-        <v>0.6158109866851333</v>
+        <v>0.5614483578996925</v>
       </c>
       <c r="H22">
-        <v>0.7086943682185449</v>
+        <v>0.3516198765149312</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.456330238472958</v>
+        <v>4.424766082708686</v>
       </c>
       <c r="L22">
-        <v>0.1308931125105275</v>
+        <v>0.07182336540103762</v>
       </c>
       <c r="M22">
-        <v>0.4717858024054351</v>
+        <v>1.115040685217743</v>
       </c>
       <c r="N22">
-        <v>1.235169107106415</v>
+        <v>0.8392013345927296</v>
       </c>
       <c r="O22">
-        <v>2.632867301304998</v>
+        <v>1.877793439514988</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4102246002117909</v>
+        <v>0.4188712388842646</v>
       </c>
       <c r="D23">
-        <v>0.04128293181349818</v>
+        <v>0.08313280202731477</v>
       </c>
       <c r="E23">
-        <v>0.1594213774968765</v>
+        <v>0.1215119576128494</v>
       </c>
       <c r="F23">
-        <v>0.7822429930006365</v>
+        <v>0.6994932255107926</v>
       </c>
       <c r="G23">
-        <v>0.6142223751144797</v>
+        <v>0.545109535815115</v>
       </c>
       <c r="H23">
-        <v>0.7094963019312672</v>
+        <v>0.3464708316564469</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.407468251733405</v>
+        <v>4.263317713969286</v>
       </c>
       <c r="L23">
-        <v>0.1309531297254551</v>
+        <v>0.07054937176382481</v>
       </c>
       <c r="M23">
-        <v>0.4602143296824011</v>
+        <v>1.0738972248311</v>
       </c>
       <c r="N23">
-        <v>1.235938443635177</v>
+        <v>0.8379363547761187</v>
       </c>
       <c r="O23">
-        <v>2.631069951603706</v>
+        <v>1.832220484232039</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4009460102242315</v>
+        <v>0.3689913456715317</v>
       </c>
       <c r="D24">
-        <v>0.0379316918432977</v>
+        <v>0.07312756828254408</v>
       </c>
       <c r="E24">
-        <v>0.1579820506946561</v>
+        <v>0.1094187267224349</v>
       </c>
       <c r="F24">
-        <v>0.7733489264543678</v>
+        <v>0.6231473577787625</v>
       </c>
       <c r="G24">
-        <v>0.6089887366199207</v>
+        <v>0.4860821222406031</v>
       </c>
       <c r="H24">
-        <v>0.7131424144263576</v>
+        <v>0.3285350200751651</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.222172401342391</v>
+        <v>3.653745002267101</v>
       </c>
       <c r="L24">
-        <v>0.131291891923361</v>
+        <v>0.06601434202023171</v>
       </c>
       <c r="M24">
-        <v>0.4165143655189212</v>
+        <v>0.9190476726700325</v>
       </c>
       <c r="N24">
-        <v>1.239629469698869</v>
+        <v>0.8353457797186081</v>
       </c>
       <c r="O24">
-        <v>2.627179363220449</v>
+        <v>1.66892886453229</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3916848726225908</v>
+        <v>0.3172235416874969</v>
       </c>
       <c r="D25">
-        <v>0.03427660990651304</v>
+        <v>0.06231783200097851</v>
       </c>
       <c r="E25">
-        <v>0.1567257985250272</v>
+        <v>0.09711999666015814</v>
       </c>
       <c r="F25">
-        <v>0.7656359980737619</v>
+        <v>0.5464038313915864</v>
       </c>
       <c r="G25">
-        <v>0.6050102083228239</v>
+        <v>0.4277516029363539</v>
       </c>
       <c r="H25">
-        <v>0.7183763291084801</v>
+        <v>0.3121914640135515</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.021858225171371</v>
+        <v>2.999088945570946</v>
       </c>
       <c r="L25">
-        <v>0.1318954038123401</v>
+        <v>0.06167747199516072</v>
       </c>
       <c r="M25">
-        <v>0.3696589736169642</v>
+        <v>0.753689101544758</v>
       </c>
       <c r="N25">
-        <v>1.245277657343152</v>
+        <v>0.8368715380772755</v>
       </c>
       <c r="O25">
-        <v>2.629201104687411</v>
+        <v>1.510362646973846</v>
       </c>
     </row>
   </sheetData>
